--- a/test-cases/AllexisTestCases.xlsx
+++ b/test-cases/AllexisTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A8D8D2B-FA88-48F2-A871-4A9DB1850F08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98A751F4-B75F-4941-9CC3-CB5021DB4C0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
-  <si>
-    <t>TestCaseId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="120">
   <si>
     <t>Component</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Description/Test Summary</t>
@@ -93,9 +87,6 @@
   </si>
   <si>
     <t>Test Name</t>
-  </si>
-  <si>
-    <t>Verify that when a valid artist has been searched, the result has results.</t>
   </si>
   <si>
     <t>Filtering Test (Variation 2)</t>
@@ -352,9 +343,6 @@
     <t>Search results related to "aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa" should be properly word-wrapped/formated.</t>
   </si>
   <si>
-    <t>"Result for" element on the results page is nor properly formated</t>
-  </si>
-  <si>
     <t>WEB-APP freezes for the duration of the execution of the search string and
 Prints Stack Exception revealing sensitive data, whilst limiting the application functionality</t>
   </si>
@@ -379,10 +367,100 @@
     <t>Verify that the post request with extremely long string, is handled properly by the backend</t>
   </si>
   <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Verify that when a valid artist has been searched, the result has valid results.</t>
+  </si>
+  <si>
+    <t>"Result for" element on the results page is not properly formated</t>
+  </si>
+  <si>
     <t>DB loaded
+Web-Application Running</t>
+  </si>
+  <si>
+    <t>Navigation bar</t>
+  </si>
+  <si>
+    <t>Verify that the link from nav bar takes the user to the proper page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DB loaded
+Web application running
 Postman
 Text document from:
 https://github.com/gmendonca/gpu-speed-bench/blob/master/SeveralTests/txt/1mb.txt</t>
+  </si>
+  <si>
+    <t>Web Application running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write the url - https://store.demo.allexis.digital in the browser's URL bar and press enter.
+</t>
+  </si>
+  <si>
+    <t>Landing page is loaded</t>
+  </si>
+  <si>
+    <t>Navigation test (Variant 1)</t>
+  </si>
+  <si>
+    <t>Navigation test (Variant 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write the url - https://store.demo.allexis.digital in the browser's URL bar and press enter.
+2.Click the Get Apps link in the navbar.
+</t>
+  </si>
+  <si>
+    <t>The landing page should be loaded</t>
+  </si>
+  <si>
+    <t>Get The apps page should be loaded.</t>
+  </si>
+  <si>
+    <t>Get the apps page is loaded.</t>
+  </si>
+  <si>
+    <t>Navigation test (Variant 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write the url - https://store.demo.allexis.digital in the browser's URL bar and press enter.
+2.Click the Subscription link in the navbar.
+</t>
+  </si>
+  <si>
+    <t>Subscription page should be loaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write the url - https://store.demo.allexis.digital in the browser's URL bar and press enter.
+2.Click the My Basket link in the navbar.
+</t>
+  </si>
+  <si>
+    <t>My Basket page should be loaded.</t>
+  </si>
+  <si>
+    <t>My basket page is loaded.</t>
+  </si>
+  <si>
+    <t>Navigation test (Variant 4)</t>
+  </si>
+  <si>
+    <t>Navigation test (Variant 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write the url - https://store.demo.allexis.digital in the browser's URL bar and press enter.
+2.Click the Sign in link in the navbar.
+</t>
+  </si>
+  <si>
+    <t>Sign in page should be loaded.</t>
+  </si>
+  <si>
+    <t>Sign in  page is loaded.</t>
   </si>
 </sst>
 </file>
@@ -441,6 +519,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -490,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -591,15 +670,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -622,7 +692,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -637,7 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,7 +714,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -653,15 +721,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -680,12 +745,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1026,770 +1124,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+    <row r="1" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="103.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="183.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="149.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="149.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="195" x14ac:dyDescent="0.3">
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="149.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="195" x14ac:dyDescent="0.3">
+      <c r="K7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="149.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
+      <c r="B8" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="206.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="J9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="103.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="195" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>14</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="195" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>15</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="F18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <v>16</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="172.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="103.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="81" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="E19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>17</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>11</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="81" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>12</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="K20" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="195" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>13</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="195" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>14</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="30" t="s">
+      <c r="D21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>15</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="L21" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>16</v>
+      <c r="E22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
